--- a/Manual_Test_Case_details.xlsx
+++ b/Manual_Test_Case_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,501 +451,497 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Click on Reference Data\n</t>
+          <t>Click on the Jobs sidebar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The Reference Data page should open. 
-Test Data: None.</t>
+          <t>Jobs page should be displayed. 
+Test Data: N/A (Not Applicable)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>None.</t>
+          <t>N/A (Not Applicable)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Click on Wells option\n</t>
+          <t>Click on Table\n</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wells option should be selected/displayed. 
-Test Data: This scenario may not require test data.</t>
+          <t>The Table should be displayed on the screen. 
+Test Data: N/A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>This scenario may not require test data.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Click on Create new well button\n</t>
+          <t>Click on Set as Current Job link\n</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Create new well form should be displayed. 
-Test Data: N/A (not applicable)</t>
+          <t>The current job must be updated to the selected job. 
+Test Data: None (Assuming that the user has already selected a job and there are multiple jobs available to select from)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N/A (not applicable)</t>
+          <t>None (Assuming that the user has already selected a job and there are multiple jobs available to select from)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Enter Valid "name " into Name input field\n</t>
+          <t>Click on Set as Current Well link\n</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>User should be able to enter a valid name into the Name input field. 
-Test Data: name=John Smith.</t>
+          <t>The current well should be set and displayed as active on the screen.
+Test Data: None.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>name=John Smith.</t>
+          <t>None.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Enter "API/UID No" into API/UID No input field\n</t>
+          <t>Click on Set as Current Stage link\n</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>User should be able to enter "API/UID No" into the API/UID No input field. 
-Test Data: API/UID No = 1234567.</t>
+          <t>User should be directed to a confirmation popup asking if they want to set the current stage.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>API/UID No = 1234567.</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Enter "AFE Number" into AFE Number input field\n</t>
+          <t>Click on View Detail on Chemicals tab\n</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AFE Number should be successfully entered into the AFE Number input field. 
-Test Data: AFE Number = 1234567890.</t>
+          <t>Details of the selected chemical should be displayed. 
+Test Data: None (Assuming that a chemical has already been selected and is visible on the Chemicals tab)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AFE Number = 1234567890.</t>
+          <t>None (Assuming that a chemical has already been selected and is visible on the Chemicals tab)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Enter "Longitude" into Longitude input field\n</t>
+          <t>Click on set up option\n</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>User should be able to enter "Longitude" into Longitude input field.
-Test Data: Longitude=25.123456 (if Test Data is required, otherwise keep it empty)</t>
+          <t>Set up options menu should be displayed. 
+Test Data: N/A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Longitude=25.123456 (if Test Data is required, otherwise keep it empty)</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Enter "Latitude" into Latitude input field\n</t>
+          <t>Click on Add Acid/Additives button</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>"Latitude" should be entered into the Latitude input field successfully.
-Expected Result: Latitude input field should display "Latitude"
-Test Data: Latitude = 37.7749 (if needed)</t>
+          <t>The Add Acid/Additives window should be displayed. 
+Test Data: None (if Test Data is not needed means keep it empty)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Latitude = 37.7749 (if needed)</t>
+          <t>None (if Test Data is not needed means keep it empty)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Enter the "Total Stages" into Total Stages field\n</t>
+          <t>Click on "name" into chemical name dropdown\n</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>User should be able to enter the "Total Stages" into the Total Stages field successfully.
-Expected Result: Total Stages value should be displayed in the Total Stages field.
-Test Data: Total Stages = 5.</t>
+          <t>Dropdown for chemical names should open.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Total Stages = 5.</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Click on operator dropdown\n</t>
+          <t>Select a option from name drop down</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The operator dropdown menu should open and display a list of available operators. 
-Test Data: None needed as this is a functional test of the application's interface.</t>
+          <t>The selected option should be displayed in the name drop down field.
+Test Data: Option 1, Option 2, Option 3 (if applicable and available)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>None needed as this is a functional test of the application's interface.</t>
+          <t>Option 1, Option 2, Option 3 (if applicable and available)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Select a operator from operator dropdown\n</t>
+          <t>Enter value "Design Concentration" into Design Concentration input field</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>User should be able to select an operator from the operator dropdown. 
-Test Data: List of operators in the dropdown.</t>
+          <t>User should be able to enter "Design Concentration" into Design Concentration input field.
+Expected Result: "Design Concentration" should be displayed in the Design Concentration input field.
+Test Data: Design Concentration = 50%.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>List of operators in the dropdown.</t>
+          <t>Design Concentration = 50%.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Click on pad dropdown\n</t>
+          <t>Enter a value "Design volume" into Designed Volume per Stage input field</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pad dropdown should be displayed. 
-Test Data: N/A</t>
+          <t>The value "Design volume" should be entered into Designed Volume per Stage input field successfully. 
+Test Data: Design volume = 1000.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Design volume = 1000.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Select a pad from operator dropdown\n</t>
+          <t>Click on Add button</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>User should be able to select a pad from the operator dropdown.
-Test Data: List of pads available in the dropdown.</t>
+          <t>New item should be added to the list. 
+Test Data: N/A.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>List of pads available in the dropdown.</t>
+          <t>N/A.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Click on Save well option\n</t>
+          <t>The Jobs slider must open</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Save well option should be clicked and corresponding action should be taken (such as data being saved or confirmation message being displayed).
-Test Data: N/A (if Test Data is not needed, keep it empty)</t>
+          <t>Jobs slider should open displaying available job listings. 
+Test Data: N/A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A (if Test Data is not needed, keep it empty)</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verify the new created well in the manage well page Acceptance criteria: </t>
+          <t>Job Listing page must be open</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>**The User Flow:** Open the Manage Well page and look for the newly created well.
-**Expected Result:** The new created well should be displayed in the Manage Well page.
-**Test Data:** N/A</t>
+          <t>Job Listing page should be displayed with relevant job postings. 
+Test Data: None needed.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>None needed.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The User must be able to view the side menu of Reference Data</t>
+          <t>All well listing page must be open</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>**Expected Result:** The user should be able to view the side menu of Reference Data. 
-**Test Data:** N/A</t>
+          <t>All well listing page should be successfully opened.
+Test Data: N/A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>** N/A</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>User able to navigate Manage Wells page\n</t>
+          <t>All stage list for selected well must be open</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>User should be able to access and view the Manage Wells page without any errors or issues.
-Test Data: N/A.</t>
+          <t>All stages for the selected well should be displayed and visible to the user.
+Test Data: Well ID or name for the selected well.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>N/A.</t>
+          <t>Well ID or name for the selected well.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Add/Edit Wel must open\n</t>
+          <t>Multiple tab must be open</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Application screen for Add/Edit Wel must be opened successfully.</t>
+          <t>Multiple tabs should be opened successfully.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -957,163 +953,161 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>User should be able to enter name into name input field</t>
+          <t>Chemicals page must be open</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>User should be able to successfully enter name into the name input field.
-Expected Result: Name should be entered into the name input field without any errors.
-Test Data: name=Sara.</t>
+          <t>Chemicals page should be loaded and displayed on the screen.
+Test Data: N/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>name=Sara.</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>User should be enter API/UID No</t>
+          <t>Set up option should be clicked</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>User should be able to enter API/UID No. in the designated field.
-Test Data: API/UID No. = 1234567890.</t>
+          <t>Set up menu should be displayed. 
+Test Data: (if Test Data is not needed, keep it empty)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>API/UID No. = 1234567890.</t>
+          <t>(if Test Data is not needed, keep it empty)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>User should be able to enter AFE Number</t>
+          <t>Add Acid/Additives page must open</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>User should be able to enter AFE Number in the designated field. 
-Test Data: AFE Number = 12345.</t>
+          <t>Add Acid/Additives page should be successfully opened.
+Test Data: None</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AFE Number = 12345.</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>User should be able to enter Longitude</t>
+          <t>The drop-down should expand, displaying a list of selectable options for the chemical name</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>User should be able to enter Longitude in the designated field.
-Test Data: Longitude= -73.935242.</t>
+          <t>The drop-down should expand, displaying a list of selectable options for the chemical name.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Longitude= -73.935242.</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>User should be able to enter Latitude</t>
+          <t>Option must be selected</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>User should be able to enter Latitude in the designated input field. 
-Test Data: Latitude=37.7749 (if needed)</t>
+          <t>User should be able to select an option from the given options. 
+Test Data: Options may include Yes/No, True/False, Male/Female, etc.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Latitude=37.7749 (if needed)</t>
+          <t>Options may include Yes/No, True/False, Male/Female, etc.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Total Stages input field must be filled\n</t>
+          <t>Entered value must be filled into Design Concentration input field</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>User should see an error message prompting to fill the Total Stages input field.</t>
+          <t>Value entered by the user should be displayed in the Design Concentration input field.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1125,50 +1119,49 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Operators should be display\n</t>
+          <t>Entered value must be filled into Designed Volume per Stage input field</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Operators should be displayed on the screen.
-Test Data: N/A (not needed)</t>
+          <t>Value entered must be successfully filled into the Designed Volume per Stage input field.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>N/A (not needed)</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Operator must be selected\n</t>
+          <t>Chemical should be successfully added with the provided details</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>**Expected Result:** Operator selection dropdown must be displayed for the user to select from.</t>
+          <t>**Expected Result:** Chemical should be added to the system with all the provided details.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1180,459 +1173,420 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Pads should be display\n</t>
+          <t>5% HCL\nDesign Concentration-2\nDesigned Volume -3\n Stratus: Ready for testing', 'testcaselist': 'Story Title: Chemical Setup\n\nMain Test Cases:\n</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pads should be displayed on the screen.
-Test Data: None needed.</t>
+          <t>It is not clear what the expected result should be for the given scenario. Please provide more information or context.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>None needed.</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pad must be selected\n</t>
+          <t xml:space="preserve"> Verify that the Jobs sidebar opens when clicked</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The user should be able to select Pad option.</t>
+          <t>The Jobs sidebar should open when clicked.
+Test Data: N/A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No Test Data Found</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Well should be saves and user should navigate to manage well page\n</t>
+          <t xml:space="preserve"> Verify that the Job Listing page opens when Table is clicked</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The User Flow: User clicks on "Save" button and navigates to Manage Well page.
-Expected Result: Well should be saved and user should be navigated to Manage Well page.
-Test Data: Well details (name, location, etc.) entered by user.</t>
+          <t>**Expected Result:** Job Listing page must open when Table is clicked.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Well details (name, location, etc.) entered by user.</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>New created well should display in manage well page Constrain: nan Notes: nan Sample data: Name-Electric\nAFE Number-NUM234\nAPI/UID No-1234\nLongitude-</t>
+          <t xml:space="preserve"> Verify that the well listing page opens when Set as Current Job link is clicked</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>**The User Flow:** Navigate to Manage Well page after creating a new well.
-**Expected Result:** The newly created well should be displayed in the Manage Well page.
-**Test Data:** Name - Electric, AFE Number - NUM234, API/UID No - 1234, Longitude - . (if Test Data is not needed means keep it empty)</t>
+          <t>**Expected Result:** Well listing page should open when Set as Current Job link is clicked.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>** Name - Electric, AFE Number - NUM234, API/UID No - 1234, Longitude - . (if Test Data is not needed means keep it empty)</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>876\nLatitude-</t>
+          <t xml:space="preserve"> Verify that the stage list for the selected well opens when Set as Current Stage link is clicked</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>This scenario is incomplete and does not provide enough context or information to determine an expected result. Please provide more details or clarification.</t>
+          <t>**The User Flow:** Click on Set as Current Stage link for a selected well.
+**Expected Result:** Stage list for the selected well should open.
+**Test Data:** N/A.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No Test Data Found</t>
+          <t>** N/A.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>765\nTotal Stages-30 Stratus: Ready for testing', 'testcaselist': 'Story Title: Create a new well in the system \n\nMain Test Cases:\n</t>
+          <t xml:space="preserve"> Verify that multiple tabs are open when View Detail on Chemicals tab is clicked</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>This scenario is incomplete and unclear. Please provide more information or clarify the requirements for the expected results.</t>
+          <t>**The User Flow:** Click on View Detail button on Chemicals tab
+**Expected Result:** Multiple tabs should be opened displaying detailed information about the selected chemicals.
+**Test Data:** None needed.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No Test Data Found</t>
+          <t>** None needed.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the user can access the Reference Data section and navigate to the Wells option</t>
+          <t xml:space="preserve"> Verify that the Chemicals page opens when set up option is clicked</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>**The User Flow:** Log in to XOPS Application. Navigate to Reference Data section. Click on Wells option.
-    **Expected Result:** User should be able to access the Reference Data section and navigate to the Wells option.
-    **Test Data:** Login credentials for the application.</t>
+          <t>The Chemicals page should open when the set up option is clicked.
+Test Data: None needed.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>** Login credentials for the application.</t>
+          <t>None needed.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the user can click on the Create new well button and add a new well successfully</t>
+          <t xml:space="preserve"> Verify that the Add Acid/Additives page opens when Add Acid/Additives button is clicked</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>**The User Flow:** Click on the Create new well button and add a new well.
-**Expected Result:** User should be able to click on the Create new well button and add a new well successfully.
-**Test Data:** N/A.</t>
+          <t>**Expected Result:** The Add Acid/Additives page should open when the Add Acid/Additives button is clicked.
+**Test Data:** No test data needed for this scenario.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>** N/A.</t>
+          <t>** No test data needed for this scenario.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the user can enter a valid name, API/UID No, AFE Number, Longitude, and Latitude in their respective input fields</t>
+          <t xml:space="preserve"> Verify that the dropdown expands, displaying a list of selectable options for the chemical name</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>**The User Flow:** User enters valid name in name field, valid API/UID No in API/UID No field, valid AFE Number in AFE Number field, valid Longitude in Longitude field, and valid Latitude in Latitude field. 
-**Expected Result:** User should be able to enter valid data in all respective input fields without any error or obstruction.
-**Test Data:** 
-- Name: John Doe
-- API/UID No: 1234567890
-- AFE Number: AFE1234
-- Longitude: 45.6789
-- Latitude: -123.4567</t>
+          <t>**Expected Result:** Dropdown should expand, displaying a list of selectable options for the chemical name. 
+**Test Data:** N/A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>** N/A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the user can select an operator and a pad from their respective dropdown lists</t>
+          <t xml:space="preserve"> Verify that an option from the dropdown can be selected successfully</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The user should be able to select an operator and a pad from their respective dropdown lists. 
-Test Data: Operator dropdown list - [AT&amp;T, Verizon, T-Mobile], Pad dropdown list - [Pad1, Pad2, Pad3]</t>
+          <t>User should be able to select the desired option from the dropdown successfully.
+Test Data: Dropdown options list.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Operator dropdown list - [AT&amp;T, Verizon, T-Mobile], Pad dropdown list - [Pad1, Pad2, Pad3]</t>
+          <t>Dropdown options list.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the user can save the new well successfully and navigate to the Manage Wells page</t>
+          <t xml:space="preserve"> Verify that numerical values can be entered into the Design Concentration input field</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>**The User Flow:** Create a new well and attempt to save it. Navigate to the Manage Wells page.
-**Expected Result:** The new well should be saved successfully and the user should be able to navigate to the Manage Wells page to view the newly added well.
-**Test Data:** Well details such as well name, location, type, and other relevant information.</t>
+          <t>The user should be able to enter numerical values into the Design Concentration input field.
+Expected Result: Numerical values should be accepted in the Design Concentration input field.
+Test Data: 250.5</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>** Well details such as well name, location, type, and other relevant information.</t>
+          <t>250.5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the newly created well is displayed in the Manage Wells page</t>
+          <t xml:space="preserve"> Verify that numerical values can be entered into the Designed Volume per Stage input field</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>**The User Flow:** Navigate to the Manage Wells page and check for the newly created well.
-    **Expected Result:** The newly created well should be displayed in the Manage Wells page.
-    **Test Data:** None, as this scenario is dependent on the creation of a new well, which may have its own test data.</t>
+          <t>**The User Flow:** Open XOPS Application. Navigate to the Designed Volume per Stage input field. Enter a numerical value in the input field. 
+**Expected Result:** The numerical value should be accepted and displayed in the input field. 
+**Test Data:** 5000.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>** None, as this scenario is dependent on the creation of a new well, which may have its own test data.</t>
+          <t>** 5000.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the Total Stages input field is mandatory and must be filled</t>
+          <t xml:space="preserve"> Verify that chemical is successfully added with the provided details</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>**The User Flow:** Navigate to the Total Stages input field and try to submit the form without filling it.
-**Expected Result:** An error message should be displayed stating that the Total Stages field is mandatory and must be filled.
-**Test Data:** Total Stages input field.</t>
+          <t>The chemical should be added to the system with all the provided details accurately recorded.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>** Total Stages input field.</t>
+          <t>No Test Data Found</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the system restricts the user from adding duplicate wells with the same name or API/UID No</t>
+          <t xml:space="preserve"> Verify that the design concentration field only accepts numerical values</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>**The User Flow:** Attempt to add a well with the same name or API/UID No. as an existing well
-    **Expected Result:** System should display an error message indicating that duplicate wells are not allowed
-    **Test Data:** Existing well name or API/UID No. = "Well A" or "1234567890". Attempt to add another well with the same name or API/UID No.</t>
+          <t>User should not be able to enter non-numerical values in the design concentration field. An error message should be displayed if the user attempts to do so.
+Test Data: "abcd" should not be accepted in the design concentration field, while "1234" should be accepted.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>** Existing well name or API/UID No. = "Well A" or "1234567890". Attempt to add another well with the same name or API/UID No.</t>
+          <t>"abcd" should not be accepted in the design concentration field, while "1234" should be accepted.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CreateWell</t>
+          <t>Chemical setup</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>As a Back office user I can create a new well</t>
+          <t>As a registered user, I want to add chemical by providing valid details into all fields.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Verify if the system restricts the user from adding wells with invalid or out of range Longitude and Latitude values</t>
+          <t xml:space="preserve"> Verify that the designed volume per stage field only accepts numerical values</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>**The User Flow:** Add a well with invalid or out of range Longitude and Latitude values.
-**Expected Result:** System should restrict the user from adding wells with invalid or out of range Longitude and Latitude values and prompt an error message.
-**Test Data:** Longitude=200, Latitude=100.</t>
+          <t>Application must validate and only accept numerical values in the designed volume per stage field, and display an error message if non-numerical values are entered. 
+Test Data: 2, 5.6, 0.45, -3 (to test for negative values), "abc" (to test for non-numerical values).</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>** Longitude=200, Latitude=100.</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>CreateWell</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>As a Back office user I can create a new well</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Verify if the system displays appropriate error messages for any invalid inputs or errors encountered during the well creation process</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>System should display appropriate error messages for any invalid inputs or errors encountered during the well creation process.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>No Test Data Found</t>
+          <t>2, 5.6, 0.45, -3 (to test for negative values), "abc" (to test for non-numerical values).</t>
         </is>
       </c>
     </row>
